--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-uncategorizedcomment.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministration-uncategorizedcomment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="114">
   <si>
     <t>Property</t>
   </si>
@@ -327,34 +327,44 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t>string
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
     <t>example</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Examples/ValueSet/JP_MedicationAdministrationUncategorizedComment_VS</t>
+  </si>
+  <si>
+    <t>valueString</t>
+  </si>
+  <si>
+    <t>テキスト記載</t>
   </si>
 </sst>
 </file>
@@ -669,7 +679,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1353,7 +1363,7 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>103</v>
@@ -1386,11 +1396,11 @@
         <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>75</v>
@@ -1423,6 +1433,108 @@
         <v>107</v>
       </c>
       <c r="AJ7" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>100</v>
       </c>
     </row>
